--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B18AF3-F9BD-6646-8EB4-20780A0703B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550DD72F-6120-754E-9654-9E2EF3B1B4C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="960" windowWidth="27080" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="1600" windowWidth="27080" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="138">
   <si>
     <t xml:space="preserve">• Not at all _x000D_
 • Several days _x000D_
@@ -68,18 +68,6 @@
 • Sometimes 
 • Usually  
 • Always </t>
-  </si>
-  <si>
-    <t>Do you currently have access to free food for your household? Examples of free food include food pantries and programs, SNAP etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Yes I have access to free food resources 
-• No, but I know where/how I can access free food resources  
-• No, I am not eligible for free food resources  
-• Unsure </t>
-  </si>
-  <si>
-    <t>Meet Basic Needs for Health and Well-Being</t>
   </si>
   <si>
     <t xml:space="preserve">What is the zip code for your current residence? </t>
@@ -1010,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1025,455 +1013,455 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="160" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -1484,18 +1472,18 @@
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -1506,40 +1494,40 @@
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -1550,29 +1538,29 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -1583,311 +1571,300 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="B77" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550DD72F-6120-754E-9654-9E2EF3B1B4C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47619FC1-4124-4146-8035-5AB249994592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1600" windowWidth="27080" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20600" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="166">
   <si>
     <t xml:space="preserve">• Not at all _x000D_
 • Several days _x000D_
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>Single select from 1-20 children, then &gt; 20</t>
-  </si>
-  <si>
-    <t>Include all children, teenagers, adults, and yourself.</t>
   </si>
   <si>
     <t xml:space="preserve">What is your race? Select all that apply 
@@ -406,10 +403,6 @@
 [Asked of all children]</t>
   </si>
   <si>
-    <t>The next set of questinos are related to your experience with the COVID-19 virus.
-Instructions: Please answer each quesstion to the best of your ability. All questions are optional. Coronavirus is also known as COVID-19, and refers to the global pandemic occurring in late 2019 and throughout 2020</t>
-  </si>
-  <si>
     <t>Have you been suspected or diagnosed with coronavirus (COVID-19)?</t>
   </si>
   <si>
@@ -532,10 +525,6 @@
   </si>
   <si>
     <t>Financial Strain</t>
-  </si>
-  <si>
-    <t>[If very hard, hard or somewhat hard to pay for basics]
-Which of these needs have been hard to pay for in the past moth? Select all that apply</t>
   </si>
   <si>
     <t>•  Food
@@ -642,15 +631,121 @@
   <si>
     <t>Source</t>
   </si>
+  <si>
+    <t>U.S. Census</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team Modified from U.S. Census </t>
+  </si>
+  <si>
+    <t>Link (as available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team Modified from U.S. Census 
+</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/data/tables/time-series/demo/families/children.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Census
+</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/sex/?sec_ak_reference=18.28e8d93f.1590627222.663bae5</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/citizenship/</t>
+  </si>
+  <si>
+    <t>How many people currently live in your home?
+Include all children, teenagers, adults, and yourself.</t>
+  </si>
+  <si>
+    <t>https://www.pewresearch.org/hispanic/2004/03/19/generational-differences/</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from Pew Study</t>
+  </si>
+  <si>
+    <t>https://www.census2020now.org/faces-blog/same-sex-households-2020-census-r3976</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/language/</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified</t>
+  </si>
+  <si>
+    <t>https://adata.org/faq/what-definition-disability-under-ada#:~:text=The%20ADA%20defines%20a%20person,not%20currently%20have%20a%20disability.</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified. From U.S. Census and ADA</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/nchs/nhis/health_insurance/hi_content.htm</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from NHIS</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>GAD-2</t>
+  </si>
+  <si>
+    <t>PHQ-2</t>
+  </si>
+  <si>
+    <t>The next set of questions are related to your experience with the COVID-19 virus.
+Instructions: Please answer each quesstion to the best of your ability. All questions are optional. Coronavirus is also known as COVID-19, and refers to the global pandemic occurring in late 2019 and throughout 2020</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/pdf/40967322.pdf?casa_token=8BWrXEu4O5QAAAAA:v8l4I7NHebQhvvF9b3K6MeP2aY_Xf8VjkTWWTVui01iBUeyvscZB_ZVwMHB64Ioj05dyOmqzjTgI3OgJ7Hmz7uoXrbpAV6hT_9r6-a45miUEoP5vQSA</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from single item Stress measure</t>
+  </si>
+  <si>
+    <t>PSOC</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/income/#:~:text=We%20ask%20questions%20about%20the,assistance%20for%20populations%20in%20need.</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from Economic Harship Questionnaire</t>
+  </si>
+  <si>
+    <t>NIH Toolbox Item Bank v2.0</t>
+  </si>
+  <si>
+    <t>IOM Financial Strain</t>
+  </si>
+  <si>
+    <t>[If very hard, hard or somewhat hard to pay for basics]
+Which of these needs have been hard to pay for in the past month? Select all that apply</t>
+  </si>
+  <si>
+    <t>CBCL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,10 +768,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -684,8 +780,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -998,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1009,23 +1109,28 @@
     <col min="1" max="1" width="54.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,8 +1140,11 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1046,8 +1154,11 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1057,8 +1168,14 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1068,8 +1185,11 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,10 +1199,13 @@
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
@@ -1090,8 +1213,11 @@
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1101,8 +1227,14 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1112,8 +1244,14 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1123,8 +1261,14 @@
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1134,10 +1278,16 @@
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -1145,8 +1295,11 @@
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1156,8 +1309,14 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1167,8 +1326,11 @@
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1178,10 +1340,13 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
@@ -1189,282 +1354,370 @@
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="160" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="240" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1472,21 +1725,33 @@
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1494,43 +1759,55 @@
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -1538,32 +1815,41 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -1571,303 +1857,383 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="320" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="C55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="C56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="C57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="B62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="C68" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="C72" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="2" t="s">
+    <row r="75" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="D75" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="D76" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="B80" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{822A0BDC-AF56-B148-B1E6-28E798DCA458}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{FDBD3818-9066-A04B-B91F-D5DABAD585E2}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{CD714593-047E-C041-AD81-A493D0502513}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{1A35EBF3-75BF-5044-BA0C-7E93BB212DF9}"/>
+    <hyperlink ref="E16" r:id="rId5" location=":~:text=The%20ADA%20defines%20a%20person,not%20currently%20have%20a%20disability." display="https://adata.org/faq/what-definition-disability-under-ada - :~:text=The%20ADA%20defines%20a%20person,not%20currently%20have%20a%20disability." xr:uid="{0C38394D-51D1-2248-8539-3FAE47C21C32}"/>
+    <hyperlink ref="E26" r:id="rId6" xr:uid="{1B3A5719-54CD-DD47-BAB4-4B14D68D2D1B}"/>
+    <hyperlink ref="E27" r:id="rId7" xr:uid="{FC65F9B2-DC27-324B-BB24-996C51CF5D6A}"/>
+    <hyperlink ref="E28" r:id="rId8" xr:uid="{63837D77-2D06-6349-B5FD-33D2534A9481}"/>
+    <hyperlink ref="E29" r:id="rId9" xr:uid="{56FCD263-678C-674F-B4A5-1A2F2C1B907C}"/>
+    <hyperlink ref="E43" r:id="rId10" xr:uid="{699CC563-4F69-EB40-8216-E4FE014623A6}"/>
+    <hyperlink ref="E44" r:id="rId11" xr:uid="{0A582372-2B28-B843-8CE5-868EBC57C6A1}"/>
+    <hyperlink ref="E55" r:id="rId12" location=":~:text=We%20ask%20questions%20about%20the,assistance%20for%20populations%20in%20need." display="https://www.census.gov/acs/www/about/why-we-ask-each-question/income/ - :~:text=We%20ask%20questions%20about%20the,assistance%20for%20populations%20in%20need." xr:uid="{821723F2-F703-B74D-AAFA-0E80CC12BA2D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47619FC1-4124-4146-8035-5AB249994592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C188632-2EAE-1445-82BE-10F3C6B9C4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20600" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
   <si>
     <t xml:space="preserve">• Not at all _x000D_
 • Several days _x000D_
@@ -617,9 +617,6 @@
     <t>Is there anything else you would like to tell us about you and your family's experiences during the COVID-19 pandemic?</t>
   </si>
   <si>
-    <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information?</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -728,13 +725,22 @@
   </si>
   <si>
     <t>CBCL</t>
+  </si>
+  <si>
+    <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team modified from the National Survey of Early Care and Education (NSECE) </t>
+  </si>
+  <si>
+    <t>PSIIV-SF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +752,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -772,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -782,6 +795,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1100,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1115,19 +1131,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1141,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1155,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -1169,10 +1185,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1186,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -1200,12 +1216,12 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
@@ -1214,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1228,10 +1244,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="160" x14ac:dyDescent="0.2">
@@ -1245,10 +1261,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -1262,10 +1278,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="176" x14ac:dyDescent="0.2">
@@ -1279,10 +1295,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="96" x14ac:dyDescent="0.2">
@@ -1296,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -1310,10 +1326,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1327,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1341,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="256" x14ac:dyDescent="0.2">
@@ -1355,24 +1371,24 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="D17" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1382,11 +1398,11 @@
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="D18" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1396,11 +1412,11 @@
       <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="D19" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1410,8 +1426,8 @@
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>148</v>
+      <c r="D20" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="160" x14ac:dyDescent="0.2">
@@ -1424,11 +1440,11 @@
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="D21" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1438,11 +1454,11 @@
       <c r="C22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="D22" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1452,11 +1468,11 @@
       <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="D23" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1466,8 +1482,8 @@
       <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>148</v>
+      <c r="D24" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1489,10 +1505,10 @@
         <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="224" x14ac:dyDescent="0.2">
@@ -1506,10 +1522,10 @@
         <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -1523,10 +1539,10 @@
         <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1540,10 +1556,10 @@
         <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -1557,7 +1573,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1572,7 +1588,7 @@
         <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -1586,7 +1602,7 @@
         <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="224" x14ac:dyDescent="0.2">
@@ -1600,7 +1616,7 @@
         <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1614,7 +1630,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1628,12 +1644,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>76</v>
@@ -1650,7 +1666,7 @@
         <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1672,7 +1688,7 @@
         <v>82</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1686,7 +1702,7 @@
         <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1700,7 +1716,7 @@
         <v>82</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1714,7 +1730,7 @@
         <v>82</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="380" x14ac:dyDescent="0.2">
@@ -1728,10 +1744,10 @@
         <v>82</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="380" x14ac:dyDescent="0.2">
@@ -1745,10 +1761,10 @@
         <v>82</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1762,7 +1778,7 @@
         <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1776,7 +1792,7 @@
         <v>84</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1790,7 +1806,7 @@
         <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1804,7 +1820,7 @@
         <v>84</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1818,7 +1834,7 @@
         <v>84</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1832,7 +1848,7 @@
         <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1846,7 +1862,7 @@
         <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1860,7 +1876,7 @@
         <v>90</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1874,7 +1890,7 @@
         <v>90</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1896,10 +1912,10 @@
         <v>93</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1913,7 +1929,7 @@
         <v>93</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -1927,7 +1943,7 @@
         <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -1941,7 +1957,7 @@
         <v>102</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1955,12 +1971,12 @@
         <v>105</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>106</v>
@@ -1969,7 +1985,7 @@
         <v>105</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1980,7 +1996,7 @@
         <v>108</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="96" x14ac:dyDescent="0.2">
@@ -1994,7 +2010,7 @@
         <v>108</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -2008,7 +2024,7 @@
         <v>108</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -2022,7 +2038,7 @@
         <v>108</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -2036,7 +2052,7 @@
         <v>108</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -2088,7 +2104,7 @@
         <v>122</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -2102,7 +2118,7 @@
         <v>122</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -2146,7 +2162,7 @@
         <v>125</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -2160,7 +2176,7 @@
         <v>125</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -2174,7 +2190,7 @@
         <v>125</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -2188,7 +2204,7 @@
         <v>125</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -2202,12 +2218,12 @@
         <v>125</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>69</v>
@@ -2216,7 +2232,7 @@
         <v>125</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C188632-2EAE-1445-82BE-10F3C6B9C4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EC99F7-BCA3-5746-B1B4-9F068600C081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20600" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EC99F7-BCA3-5746-B1B4-9F068600C081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506F8B4-6029-C640-841A-C8D7D845B660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20600" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40460" yWindow="900" windowWidth="20600" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="193">
   <si>
     <t xml:space="preserve">• Not at all _x000D_
 • Several days _x000D_
@@ -734,6 +734,137 @@
   </si>
   <si>
     <t>PSIIV-SF</t>
+  </si>
+  <si>
+    <t>Who earns more money in your household?</t>
+  </si>
+  <si>
+    <t>•  Myself
+•  My partner or spouse
+•  About equal with my partner or spouse
+•  Other</t>
+  </si>
+  <si>
+    <t>Has this changed since the coronavirus (COVID-19) pandemic?
+(Ex. Did you make more money than your partner prior to the pandemic, but now you make less?)</t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Unsure
+• Other [Free Text]</t>
+  </si>
+  <si>
+    <t>Which of the following best describes your current employment status?</t>
+  </si>
+  <si>
+    <t>• Working
+• Unemployed or laid off
+• Temporarily out of work or furloughed
+• Other</t>
+  </si>
+  <si>
+    <t>Has your level of employment decreased due to the coronavirus (COVID-19) pandemic?</t>
+  </si>
+  <si>
+    <t>Does your place of employment offer you paid sick leave?</t>
+  </si>
+  <si>
+    <t>How likely is it that you would lose your job if you were required to take at least 2 weeks of sick leave?</t>
+  </si>
+  <si>
+    <t>• Very Likely
+• Likely
+• Neutral / Unsure
+• Unlikely
+• Very Unlikely
+• Not applicable</t>
+  </si>
+  <si>
+    <t>Are you receiving any sort of public or employment benefits?
+(Ex. Federal cash assistance programs such as the Temporary Assistance for Needy Families (TANF), Social Security Income (SSI), OR, Federal-in kind benefit programs such as Medicaid, Food Stamps and Housing.)</t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Didn't Qualify
+• Intend to Apply</t>
+  </si>
+  <si>
+    <t>[If receiving benefits]
+What types of benefits are you receiving?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.)
+• Child Care Subsidy
+• Housing
+• Income (not including federal stimulus checks)
+• Disability (not military)
+• Military Benefits (ex. Disability, pension, veterans medical care)
+• Food
+• Transportation
+• Training
+• Clothing
+• Other, please desceribe [Free Text]</t>
+  </si>
+  <si>
+    <t>Do you currently have access to free food for your household?
+Examples of free food include food pantries and programs, SNAP etc.</t>
+  </si>
+  <si>
+    <t>•	Yes, I have access to free food resources
+•	No, but I know where/how I can access free food resources
+•	No, I am not eligible for free food resources
+•	Unsure</t>
+  </si>
+  <si>
+    <t>Do you currently get free or reduced lunches for your child(ren)? Select all that apply
+Example: School Lunch and Breakfast Assistance Program</t>
+  </si>
+  <si>
+    <t>•	Yes, my child(ren) receive(s) free or reduced lunches
+•	No, my child does not receive free or reduced lunches, but they are available
+•	No, free or reduced lunches are not available for my children
+•	No, but I plan on getting free or reduced lunches for my children soon
+•	No, I don't know how to access this resource
+•	Does not apply</t>
+  </si>
+  <si>
+    <t>Prior to the coronavirus (COVID-19) pandemic, did you get free or reduced lunches for your child(ren)? Select all that apply
+Example: School Lunch and Breakfast Assistance Program</t>
+  </si>
+  <si>
+    <t>•	Yes, my child(ren) received free or reduced lunches
+•	No, my child did not receive free or reduced lunches, but they are available
+•	No, free or reduced lunches were  not available for my children
+•	No, but I had planned on getting free or reduced lunches for my children soon
+•	No, I didn't  know how to access this resource
+•	Does not apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was your employment status prior to the coronavirus (COVID-19) Pandemic? </t>
+  </si>
+  <si>
+    <t>Please describe your current work environment</t>
+  </si>
+  <si>
+    <t>•	Working from home (prior to the pandemic, I worked from home as well)
+•	Working from home, not as usual (prior to the pandemic, I did not usually work from home)
+•	Employed and not working from home (I am employed, and work outside the home)
+•	Employed and unable to work from home (I am employed, but cannot work from home)
+•	Unemployed
+•	Not applicable</t>
+  </si>
+  <si>
+    <t>Have you received a federal stimulus check this year?
+(Also known as an economic impact payment)</t>
+  </si>
+  <si>
+    <t>•	Yes, I have received a federal stimulus check
+•	No, but I expect to receive a federal stimulus check in the near future
+•	No, and I DO NOT expect to receive a federal stimulus check
+•	Unsure if I will receive a federal stimulus check
+•	Other</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1932,306 +2063,460 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>107</v>
+        <v>184</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>152</v>
       </c>
     </row>

--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506F8B4-6029-C640-841A-C8D7D845B660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC748062-E040-A949-8181-F78090B216E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40460" yWindow="900" windowWidth="20600" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="194">
   <si>
     <t xml:space="preserve">• Not at all _x000D_
 • Several days _x000D_
@@ -865,6 +865,9 @@
 •	No, and I DO NOT expect to receive a federal stimulus check
 •	Unsure if I will receive a federal stimulus check
 •	Other</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from National Compensation Survey</t>
   </si>
 </sst>
 </file>
@@ -1247,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89:D94"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2073,6 +2076,9 @@
       <c r="C57" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D57" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -2084,6 +2090,9 @@
       <c r="C58" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D58" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -2095,6 +2104,9 @@
       <c r="C59" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D59" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -2106,6 +2118,9 @@
       <c r="C60" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D60" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -2117,6 +2132,9 @@
       <c r="C61" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D61" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -2128,6 +2146,9 @@
       <c r="C62" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D62" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -2139,6 +2160,9 @@
       <c r="C63" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D63" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -2150,6 +2174,9 @@
       <c r="C64" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D64" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -2161,8 +2188,11 @@
       <c r="C65" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D65" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>175</v>
       </c>
@@ -2171,6 +2201,9 @@
       </c>
       <c r="C66" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="96" x14ac:dyDescent="0.2">
@@ -2183,6 +2216,9 @@
       <c r="C67" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D67" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -2194,6 +2230,9 @@
       <c r="C68" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D68" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -2205,6 +2244,9 @@
       <c r="C69" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D69" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -2215,6 +2257,9 @@
       </c>
       <c r="C70" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="112" x14ac:dyDescent="0.2">

--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC748062-E040-A949-8181-F78090B216E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500C820-24FD-1A4A-88D6-F9AABB414BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="197">
   <si>
     <t xml:space="preserve">• Not at all _x000D_
 • Several days _x000D_
@@ -868,6 +868,19 @@
   </si>
   <si>
     <t>RAPID Team Modified from National Compensation Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was your partner's employment status prior to the coronavirus (COVID-19) Pandemic? If you do not have a partner, please select not applicable. </t>
+  </si>
+  <si>
+    <t>• Working
+• Unemployed or laid off
+• Temporarily out of work or furloughed
+• Other
+• Not applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your partner's current employment status? If you do not have a partner, please select not applicable. </t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2222,133 +2235,133 @@
     </row>
     <row r="68" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>108</v>
@@ -2357,9 +2370,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>110</v>
@@ -2371,9 +2384,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>110</v>
@@ -2385,133 +2398,133 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D80" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="D86" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D87" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="91" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>125</v>
@@ -2525,7 +2538,7 @@
     </row>
     <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>125</v>
@@ -2539,7 +2552,7 @@
     </row>
     <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>125</v>
@@ -2553,15 +2566,43 @@
     </row>
     <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>152</v>
       </c>
     </row>

--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500C820-24FD-1A4A-88D6-F9AABB414BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7002C579-2327-0C46-BA1D-698228B39CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="1420" windowWidth="27100" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7002C579-2327-0C46-BA1D-698228B39CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E21B4-A3F4-4F4B-A2B7-C54BA90B7AF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1420" windowWidth="27100" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32820" yWindow="2560" windowWidth="27100" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,17 +527,6 @@
     <t>Financial Strain</t>
   </si>
   <si>
-    <t>•  Food
-•  Housing
-•  Utilities (electric, water, trash)
-•  Healthcare
-•  Social
-•  Emotional
-•  Childcare
-•  Other (please specify) [Free text]
-•  None of the above</t>
-  </si>
-  <si>
     <t>Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your first child (the oldest) then select "Yes" for the next question to pop up hidden blocks for more children</t>
   </si>
   <si>
@@ -881,6 +870,16 @@
   </si>
   <si>
     <t xml:space="preserve">What is your partner's current employment status? If you do not have a partner, please select not applicable. </t>
+  </si>
+  <si>
+    <t>•  Food
+•  Housing
+•  Utilities (electric, water, trash)
+•  Healthcare
+•  Social/Emotional
+•  Childcare
+•  Other (please specify) [Free text]
+•  None of the above</t>
   </si>
 </sst>
 </file>
@@ -1263,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1273,24 +1272,24 @@
     <col min="2" max="2" width="51.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1304,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1318,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -1332,10 +1331,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1349,7 +1348,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -1363,12 +1362,12 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
@@ -1377,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1391,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="160" x14ac:dyDescent="0.2">
@@ -1408,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -1425,10 +1424,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="176" x14ac:dyDescent="0.2">
@@ -1442,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="96" x14ac:dyDescent="0.2">
@@ -1459,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -1473,10 +1472,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1490,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1504,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="256" x14ac:dyDescent="0.2">
@@ -1518,10 +1517,10 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1532,7 +1531,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1546,7 +1545,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1560,7 +1559,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1574,7 +1573,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="160" x14ac:dyDescent="0.2">
@@ -1588,7 +1587,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1602,7 +1601,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1616,7 +1615,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1630,7 +1629,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1652,10 +1651,10 @@
         <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="224" x14ac:dyDescent="0.2">
@@ -1669,10 +1668,10 @@
         <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -1686,10 +1685,10 @@
         <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1703,10 +1702,10 @@
         <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -1720,7 +1719,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1735,7 +1734,7 @@
         <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -1749,7 +1748,7 @@
         <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="224" x14ac:dyDescent="0.2">
@@ -1763,7 +1762,7 @@
         <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1777,7 +1776,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1791,12 +1790,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>76</v>
@@ -1813,7 +1812,7 @@
         <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1835,7 +1834,7 @@
         <v>82</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1849,7 +1848,7 @@
         <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1863,7 +1862,7 @@
         <v>82</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1877,7 +1876,7 @@
         <v>82</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="380" x14ac:dyDescent="0.2">
@@ -1891,10 +1890,10 @@
         <v>82</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="380" x14ac:dyDescent="0.2">
@@ -1908,10 +1907,10 @@
         <v>82</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1925,7 +1924,7 @@
         <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1939,7 +1938,7 @@
         <v>84</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1953,7 +1952,7 @@
         <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1967,7 +1966,7 @@
         <v>84</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1981,7 +1980,7 @@
         <v>84</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1995,7 +1994,7 @@
         <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -2009,7 +2008,7 @@
         <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -2023,7 +2022,7 @@
         <v>90</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -2037,7 +2036,7 @@
         <v>90</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -2059,10 +2058,10 @@
         <v>93</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -2076,124 +2075,124 @@
         <v>93</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>66</v>
@@ -2202,12 +2201,12 @@
         <v>93</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>39</v>
@@ -2216,91 +2215,91 @@
         <v>93</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -2314,7 +2313,7 @@
         <v>102</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -2328,7 +2327,7 @@
         <v>102</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -2342,268 +2341,268 @@
         <v>105</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="B76" s="1" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D86" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyamishra/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A53F3BF-6220-8946-9398-D75CFF4690D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1434339C-A8D5-CE42-85F3-604725B4E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48200" yWindow="-5540" windowWidth="19000" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="24860" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="220">
   <si>
     <t>Domain</t>
   </si>
@@ -117,6 +117,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://www.census.gov/acs/www/about/why-we-ask-each-question/sex/?sec_ak_reference=18.28e8d93f.1590627222.663bae5 </t>
     </r>
@@ -135,6 +136,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/citizenship/</t>
     </r>
@@ -159,6 +161,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.pewresearch.org/hispanic/2004/03/19/generational-differences/</t>
     </r>
@@ -182,6 +185,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.census2020now.org/faces-blog/same-sex-households-2020-census-r3976</t>
     </r>
@@ -222,6 +226,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/language/</t>
     </r>
@@ -269,6 +274,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://adata.org/faq/what-definition-disability-under-ada#:~:text=The%20ADA%20defines%20a%20person,not%20currently%20have%20a%20disability.</t>
     </r>
@@ -322,6 +328,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.childandfamilydataarchive.org/cfda/archives/cfda/studies/35519/versions/V12</t>
     </r>
@@ -376,6 +383,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.cdc.gov/nchs/nhis/health_insurance/hi_content.htm</t>
     </r>
@@ -521,6 +529,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.hiv.uw.edu/page/mental-health-screening/gad-2</t>
     </r>
@@ -555,6 +564,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://www.hiv.uw.edu/page/mental-health-screening/phq-2 </t>
     </r>
@@ -593,6 +603,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.jstor.org/stable/pdf/40967322.pdf?casa_token=8BWrXEu4O5QAAAAA:v8l4I7NHebQhvvF9b3K6MeP2aY_Xf8VjkTWWTVui01iBUeyvscZB_ZVwMHB64Ioj05dyOmqzjTgI3OgJ7Hmz7uoXrbpAV6hT_9r6-a45miUEoP5vQSA</t>
     </r>
@@ -626,6 +637,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.parinc.com/Products/Pkey/335</t>
     </r>
@@ -647,6 +659,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://researchingparents.wordpress.com/2013/02/15/parenting-sense-of-competence-psoc/</t>
     </r>
@@ -693,6 +706,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.healthmeasures.net/index.php?option=com_instruments&amp;view=measure&amp;id=660</t>
     </r>
@@ -707,6 +721,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://www.healthmeasures.net/index.php?option=com_instruments&amp;view=measure&amp;id=660 </t>
     </r>
@@ -730,6 +745,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/income/#:~:text=We%20ask%20questions%20about%20the,assistance%20for%20populations%20in%20need.</t>
     </r>
@@ -762,36 +778,6 @@
   <si>
     <t>Do you currently have access to free food for your household?
 Examples of free food include food pantries and programs, SNAP etc.</t>
-  </si>
-  <si>
-    <t>•	Yes, I have access to free food resources
-•	No, but I know where/how I can access free food resources
-•	No, I am not eligible for free food resources
-•	Unsure</t>
-  </si>
-  <si>
-    <t>Prior to the coronavirus (COVID-19) pandemic, did you get free or reduced lunches for your child(ren)? Select all that apply
-Example: School Lunch and Breakfast Assistance Program</t>
-  </si>
-  <si>
-    <t>•	Yes, my child(ren) received free or reduced lunches
-•	No, my child did not receive free or reduced lunches, but they are available
-•	No, free or reduced lunches were  not available for my children
-•	No, but I had planned on getting free or reduced lunches for my children soon
-•	No, I didn't  know how to access this resource
-•	Does not apply</t>
-  </si>
-  <si>
-    <t>Do you currently get free or reduced lunches for your child(ren)? Select all that apply
-Example: School Lunch and Breakfast Assistance Program</t>
-  </si>
-  <si>
-    <t>•	Yes, my child(ren) receive(s) free or reduced lunches
-•	No, my child does not receive free or reduced lunches, but they are available
-•	No, free or reduced lunches are not available for my children
-•	No, but I plan on getting free or reduced lunches for my children soon
-•	No, I don't know how to access this resource
-•	Does not apply</t>
   </si>
   <si>
     <t xml:space="preserve">What was your employment status prior to the coronavirus (COVID-19) Pandemic? </t>
@@ -851,19 +837,6 @@
 What types of benefits are you receiving?</t>
   </si>
   <si>
-    <t xml:space="preserve"> • Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.)
-• Childcare Subsidy
-• Housing
-• Income (not including federal stimulus checks)
-• Disability (not military)
-• Military Benefits (ex. Disability, pension, veterans medical care)
-• Food
-• Transportation
-• Training
-• Clothing
-• Other, please desceribe [Free Text]</t>
-  </si>
-  <si>
     <t>Have you received a federal stimulus check this year?
 (Also known as an economic impact payment)</t>
   </si>
@@ -897,6 +870,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://www.jstor.org/stable/1131068?seq=12#metadata_info_tab_contents </t>
     </r>
@@ -932,6 +906,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5492520/</t>
     </r>
@@ -959,6 +934,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Please fill out this form to reflect your view of the child's (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits your child's behavior before the coronavirus (COVID-19) pandemic.
 </t>
@@ -968,6 +944,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -978,6 +955,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Fussy or defiant...</t>
     </r>
@@ -997,6 +975,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://aseba.org/wp-content/uploads/2019/02/preschoolcbcl.pdf </t>
     </r>
@@ -1007,6 +986,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Below is a list of items that describe children. Please select the answer which best fits your child's behavior before the coronavirus (COVID-19) pandemic.
 </t>
@@ -1016,6 +996,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1026,6 +1007,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Too fearful or anxious…</t>
     </r>
@@ -1036,6 +1018,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Please fill out this form to reflect your view of the child's (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits </t>
     </r>
@@ -1045,6 +1028,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">your child's behavior in the last week.
 </t>
@@ -1055,6 +1039,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1065,6 +1050,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Fussy or defiant...</t>
     </r>
@@ -1075,6 +1061,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Below is a list of items that describe children. Please select the answer which best fits your child's behavior in the last week.
 </t>
@@ -1084,6 +1071,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1094,6 +1082,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Too fearful or anxious…</t>
     </r>
@@ -1127,6 +1116,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://www.tuftschildrenshospital.org/the-survey-of-wellbeing-of-young-children/overview </t>
     </r>
@@ -1141,6 +1131,7 @@
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.tuftschildrenshospital.org/the-survey-of-wellbeing-of-young-children/overview</t>
     </r>
@@ -1303,6 +1294,29 @@
   </si>
   <si>
     <t>What would you like your elected officials or other policymakers (for example, U.S. Congress, state and local leaders) to know about how your family is doing or what you need during this time?</t>
+  </si>
+  <si>
+    <t>-SNAP/EBT (also known as food stamps)
+-WIC
+-Free or reduced-priced lunches through the School Lunch and Breakfast Assistance Program
+-Free food through food pantries and food banksa
+-No, but I know how I can access food resources
+-No, I am not eligible for supplemental food benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.)
+• Childcare Subsidy
+• Housing
+• Income 
+• Unemployment benefit/insurance
+• Unemployment
+• Disability (not military)
+• Military Benefits (ex. Disability, pension, veterans medical care)
+• Food
+• Transportation
+• Training
+• Clothing
+• Other, please describe [Free Text]</t>
   </si>
 </sst>
 </file>
@@ -1320,17 +1334,20 @@
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2565,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2651,10 +2668,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -2666,7 +2683,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -2711,10 +2728,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>52</v>
@@ -2824,10 +2841,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>52</v>
@@ -2842,7 +2859,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -3083,7 +3100,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>44</v>
@@ -3185,7 +3202,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>85</v>
@@ -3200,7 +3217,7 @@
         <v>87</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>85</v>
@@ -3549,7 +3566,7 @@
         <v>130</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>135</v>
@@ -3564,7 +3581,7 @@
         <v>130</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>132</v>
@@ -3581,7 +3598,7 @@
         <v>130</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>135</v>
@@ -3596,7 +3613,7 @@
         <v>130</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>132</v>
@@ -3660,161 +3677,161 @@
       <c r="B68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>141</v>
+      <c r="C68" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>213</v>
+        <v>143</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>213</v>
+        <v>145</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>51</v>
+        <v>150</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>214</v>
+        <v>152</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E78" s="3"/>
     </row>
@@ -3823,300 +3840,300 @@
         <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>179</v>
+      <c r="C88" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D89" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D92" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>52</v>
@@ -4125,48 +4142,18 @@
     </row>
     <row r="98" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E100" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4199,18 +4186,18 @@
     <hyperlink ref="E58" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="E59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="E60" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E82" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E83" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E84" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E87" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E88" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E90" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E91" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E94" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E95" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E80" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E81" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E82" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E85" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E86" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E88" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E89" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E92" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E93" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="E62" r:id="rId39" xr:uid="{40FA7016-8105-F440-B260-003BF0EC0C19}"/>
     <hyperlink ref="E64" r:id="rId40" xr:uid="{FD30FCD3-6D3B-354B-A709-48070BBD3FF1}"/>
-    <hyperlink ref="E86" r:id="rId41" xr:uid="{76EB2619-6714-8B45-9E3A-8B8245B2D90C}"/>
+    <hyperlink ref="E84" r:id="rId41" xr:uid="{76EB2619-6714-8B45-9E3A-8B8245B2D90C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyamishra/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1434339C-A8D5-CE42-85F3-604725B4E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21CEC2E5-8FAF-184E-BC41-86445E9612A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="24860" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="16840" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="231">
   <si>
     <t>Domain</t>
   </si>
@@ -1149,9 +1149,6 @@
     <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information</t>
   </si>
   <si>
-    <t>Are you now…</t>
-  </si>
-  <si>
     <t>• Married
 • Widowed
 • Divorced
@@ -1318,12 +1315,58 @@
 • Clothing
 • Other, please describe [Free Text]</t>
   </si>
+  <si>
+    <t xml:space="preserve">Are you currently enrolled in any of the following? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">o	GED program  
+o	Undergraduate or post-secondary degree program 
+o	Graduate degree program (Master's, doctorate)  
+o	Non-degree credentialing program  
+o	Not Listed (please specify)   
+o	Not Applicable  </t>
+  </si>
+  <si>
+    <t>Are you currently…</t>
+  </si>
+  <si>
+    <t>Are you currently looking for childcare, either additional/other childcare than your current situation or because you do not currently have childcare?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you had any difficulty finding space in a home- or center-based child care program in the past 6 months?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  
+o Not applicable, I did not need a spot in a child care program  </t>
+  </si>
+  <si>
+    <t>Have you had any difficulty finding other types of child care (e.g., sitter, nanny) in the past 6 months?</t>
+  </si>
+  <si>
+    <t>policy Questions</t>
+  </si>
+  <si>
+    <t>Has this difficulty finding care impacted your ability to work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  
+o Not applicable, I do not work </t>
+  </si>
+  <si>
+    <t>Why has your child care been disrupted?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1360,6 +1403,12 @@
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1404,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1422,6 +1471,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2582,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2668,10 +2718,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -2683,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -2728,10 +2778,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>52</v>
@@ -2841,101 +2891,99 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
+      <c r="B17" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>51</v>
@@ -2945,47 +2993,45 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>58</v>
@@ -2994,841 +3040,833 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>52</v>
-      </c>
+    <row r="33" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="65" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="192" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>138</v>
+      <c r="B67" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>218</v>
+      <c r="B68" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E68" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>207</v>
+      <c r="B69" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>207</v>
+      <c r="B70" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>143</v>
+      <c r="B71" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>219</v>
+        <v>145</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>52</v>
@@ -3840,320 +3878,410 @@
         <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="87" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="88" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="89" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B90" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D90" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>216</v>
+      <c r="B91" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>188</v>
+        <v>214</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B101" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E98" s="3"/>
+      <c r="E104" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4161,43 +4289,43 @@
     <hyperlink ref="E11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E31" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E44" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E45" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E46" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E47" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E48" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E49" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E50" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E51" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E54" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E58" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E60" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E80" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E81" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E82" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E85" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E86" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E88" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E89" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E92" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E93" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E62" r:id="rId39" xr:uid="{40FA7016-8105-F440-B260-003BF0EC0C19}"/>
-    <hyperlink ref="E64" r:id="rId40" xr:uid="{FD30FCD3-6D3B-354B-A709-48070BBD3FF1}"/>
-    <hyperlink ref="E84" r:id="rId41" xr:uid="{76EB2619-6714-8B45-9E3A-8B8245B2D90C}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E48" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E49" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E51" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E52" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E53" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E54" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E55" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E56" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E57" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E58" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E59" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E60" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E64" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E65" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E66" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E86" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E87" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E88" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E91" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E92" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E94" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E95" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E98" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E99" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E68" r:id="rId39" xr:uid="{40FA7016-8105-F440-B260-003BF0EC0C19}"/>
+    <hyperlink ref="E70" r:id="rId40" xr:uid="{FD30FCD3-6D3B-354B-A709-48070BBD3FF1}"/>
+    <hyperlink ref="E90" r:id="rId41" xr:uid="{76EB2619-6714-8B45-9E3A-8B8245B2D90C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/Baseline.xlsx
+++ b/Data/Baseline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,18 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -72,6 +83,19 @@
   </si>
   <si>
     <t>https://www.census.gov/data/tables/time-series/demo/families/children.html</t>
+  </si>
+  <si>
+    <t>Are you currently…</t>
+  </si>
+  <si>
+    <t>• Married
+• Widowed
+• Divorced
+• Separated 
+• Never married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many  children do you have? </t>
   </si>
   <si>
     <t>Single select from 1-20 children, then &gt; 20</t>
@@ -96,6 +120,16 @@
   <si>
     <t>How many people currently live in your home?
 Include all children, teenagers, adults, and yourself.</t>
+  </si>
+  <si>
+    <t>Before the pandemic began in the US (March 2020), did you already have a child that was between the ages of 0-5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
+• No </t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
   </si>
   <si>
     <t xml:space="preserve">What gender do you identify with? </t>
@@ -217,7 +251,47 @@
 • Other, please specify [text entry]</t>
   </si>
   <si>
+    <t>Are you currently enrolled in any of the following? (choose one)</t>
+  </si>
+  <si>
+    <t>• undergraduate or post-secondary degree program, part-time
+• undergraduate or post-secondary degree program, full-time
+• graduate degree program (Master's, doctorate), part-time
+• graduate degree program (Master's, doctorate), full-time
+• non-degree credentialing program, part-time
+• non-degree credentialing program, full-time
+• Other (part-time), please specify
+• Other (full-time), please specify 
+• Not applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you currently enrolled in any of the following? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">o	GED program  
+o	Undergraduate or post-secondary degree program 
+o	Graduate degree program (Master's, doctorate)  
+o	Non-degree credentialing program  
+o	Not Listed (please specify)   
+o	Not Applicable  </t>
+  </si>
+  <si>
     <t xml:space="preserve">What language is primarily spoken in your home? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• English 
+• Arabic 
+• Chinese 
+• French 
+• German 
+• Italian 
+• Japanese 
+• Korean 
+• Russian 
+• Spanish 
+• Vietnamese
+• American Sign Language
+• Other </t>
   </si>
   <si>
     <r>
@@ -291,9 +365,6 @@
 • Unsure</t>
   </si>
   <si>
-    <t>Developed by RAPID Team</t>
-  </si>
-  <si>
     <t>This week, have you used any non-parental care for your child(ren) under the age of 5?</t>
   </si>
   <si>
@@ -334,6 +405,35 @@
     </r>
   </si>
   <si>
+    <t>Are you currently looking for childcare, either additional/other childcare than your current situation or because you do not currently have childcare?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you had any difficulty finding space in a home- or center-based child care program in the past 6 months?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  
+o Not applicable, I did not need a spot in a child care program  </t>
+  </si>
+  <si>
+    <t>policy Questions</t>
+  </si>
+  <si>
+    <t>Have you had any difficulty finding other types of child care (e.g., sitter, nanny) in the past 6 months?</t>
+  </si>
+  <si>
+    <t>Has this difficulty finding care impacted your ability to work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  
+o Not applicable, I do not work </t>
+  </si>
+  <si>
     <t>[If at least 5 hours of unpaid care by a relative, friend or neighbor]
 What is the relationship of the relative, friend, or neighbor providing care to your child(ren) in the age range 0-5? Select all that apply
 [Asked prior to COVID and currently]</t>
@@ -361,6 +461,12 @@
 •  In the next month, I plan to use a different arrangement for childcare
 •  In the next month, I plan to use the childcare arrangement I used prior to COVID-19
 •  In the next month, I do not know what I am going to do for childcare</t>
+  </si>
+  <si>
+    <t>Why has your child care been disrupted?</t>
+  </si>
+  <si>
+    <t>Open Response</t>
   </si>
   <si>
     <t>Health &amp; Healthcare</t>
@@ -430,6 +536,14 @@
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, have you delayed getting medical care (including physical or mental health visits) for any of the following reasons?
 Indicate how many times each of these barriers has delayed you getting medical care (including physical or mental health visits), leave blank or select 0 if a listed barrier has not delayed you.</t>
+  </si>
+  <si>
+    <t>•  Cost [Select frequency 0-20]
+•  Unable to get time away from work [Select frequency 0-20]
+•  Inability to find childcare [Select frequency 0-20]
+•  Concern over exposure to coronavirus (COVID-19) [Select frequency 0-20]
+•  Caring for family member [Select frequency 0-20]
+•  Other, please describe: [Free text] [Select frequency 0-20]</t>
   </si>
   <si>
     <t>Have you missed a well-baby/well-child check-up since the coronavirus (COVID-19) pandemic began?</t>
@@ -506,6 +620,12 @@
 </t>
   </si>
   <si>
+    <t>Do you personally know anyone in the U.S. who...Has been officially diagnosed as having COVID-19 by a health care provider?</t>
+  </si>
+  <si>
+    <t>Do you personally know anyone in the U.S. who...Has been hospitalized or died as a result of having COVID-19?</t>
+  </si>
+  <si>
     <t>Parent Health/Well-Being</t>
   </si>
   <si>
@@ -751,10 +871,24 @@
     </r>
   </si>
   <si>
+    <t>How many people were being supported by your total household income in 2019?</t>
+  </si>
+  <si>
+    <t>Single select from 1-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To the best of your knowledge, which option best describes your gross (before taxes) household income from all sources, in 2020 (during the coronavirus (COVID-19) pandemic)? 
+You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. </t>
+  </si>
+  <si>
+    <t>How many people were being supported by your total household income in 2020?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To the best of your knowledge, which option best describes your gross (before taxes) household income from all sources, currently? 
+You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. </t>
+  </si>
+  <si>
     <t>How many people are being supported by your total household income?</t>
-  </si>
-  <si>
-    <t>Single select from 1-20</t>
   </si>
   <si>
     <t>Who earns more money in your household?</t>
@@ -780,7 +914,22 @@
 Examples of free food include food pantries and programs, SNAP etc.</t>
   </si>
   <si>
+    <t>-SNAP/EBT (also known as food stamps)
+-WIC
+-Free or reduced-priced lunches through the School Lunch and Breakfast Assistance Program
+-Free food through food pantries and food banksa
+-No, but I know how I can access food resources
+-No, I am not eligible for supplemental food benefits</t>
+  </si>
+  <si>
     <t xml:space="preserve">What was your employment status prior to the coronavirus (COVID-19) Pandemic? </t>
+  </si>
+  <si>
+    <t>• Working
+• Stay at home parent (not seeking employment)
+• Unemployed or laid off
+• Temporarily out of work or furloughed
+• Other [text entry]</t>
   </si>
   <si>
     <t>Which of the following best describes your current employment status?</t>
@@ -820,6 +969,14 @@
     <t xml:space="preserve">What was your partner's employment status prior to the coronavirus (COVID-19) Pandemic? If you do not have a partner, please select not applicable. </t>
   </si>
   <si>
+    <t>• Working
+• Stay at home parent (not seeking employment)
+• Unemployed or laid off
+• Temporarily out of work or furloughed
+• Other [text entry]
+• Not applicable</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is your partner's current employment status? If you do not have a partner, please select not applicable. </t>
   </si>
   <si>
@@ -835,6 +992,21 @@
   <si>
     <t>[If receiving benefits]
 What types of benefits are you receiving?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.)
+• Childcare Subsidy
+• Housing
+• Income 
+• Unemployment benefit/insurance
+• Unemployment
+• Disability (not military)
+• Military Benefits (ex. Disability, pension, veterans medical care)
+• Food
+• Transportation
+• Training
+• Clothing
+• Other, please describe [Free Text]</t>
   </si>
   <si>
     <t>Have you received a federal stimulus check this year?
@@ -924,6 +1096,39 @@
 •  Childcare
 •  Other (please specify) [Free text]
 •  None of the above</t>
+  </si>
+  <si>
+    <t>[If very hard, hard or somewhat hard to pay for basics]
+What methods are you using or do you plan to use to cover your expenses? Select all that apply</t>
+  </si>
+  <si>
+    <t>•  By putting it on my credit card and paying it off in full at the next statement
+•  By putting in on my credit card and paying it off over time
+•  With the money currently in my checking/savings account or with cash
+•  Using a bank loan or line of credit
+•  By borrowing from a friend or family member
+•  Using a payday loan, deposit advance, or overdraft
+•  By selling something
+• By using my stimulus payment
+•  By asking my landlord or mortgage provider for an extension
+•  I wouldn’t be able to pay for the expense right now
+•  Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALP survey conducted May 1-6, 2020 
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.rand.org/pubs/research_reports/RRA308-3.html  </t>
+    </r>
   </si>
   <si>
     <t>Child Behavior Problems</t>
@@ -1011,6 +1216,13 @@
       </rPr>
       <t>Too fearful or anxious…</t>
     </r>
+  </si>
+  <si>
+    <t>What is the date of birth (mm/dd/yyyy) for this child (your oldest in 0-5 age range)?
+[repeated for all children between the ages of 0-5]</t>
+  </si>
+  <si>
+    <t>• Open ended</t>
   </si>
   <si>
     <r>
@@ -1096,6 +1308,18 @@
 </t>
   </si>
   <si>
+    <t>What is YOUR relationship to this child (your oldest in 0-5 age range)?</t>
+  </si>
+  <si>
+    <t>•  Mother
+•  Father
+•  Step-mother
+•  Step-father
+•  Foster Mother/Father
+•  Kinship Care Provider
+•  Other (please specify) [Free text]</t>
+  </si>
+  <si>
     <t>Child Development (Child Health/Well-Being)</t>
   </si>
   <si>
@@ -1137,236 +1361,23 @@
     </r>
   </si>
   <si>
-    <t>Open Response</t>
-  </si>
-  <si>
     <t>What are the biggest challenges and concerns for you and your family right now?</t>
   </si>
   <si>
     <t>What is helping you and your family the most right now?</t>
   </si>
   <si>
+    <t>What would you like your elected officials or other policymakers (for example, U.S. Congress, state and local leaders) to know about how your family is doing or what you need during this time?</t>
+  </si>
+  <si>
     <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information</t>
-  </si>
-  <si>
-    <t>• Married
-• Widowed
-• Divorced
-• Separated 
-• Never married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many  children do you have? </t>
-  </si>
-  <si>
-    <t>Before the pandemic began in the US (March 2020), did you already have a child that was between the ages of 0-5?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Yes 
-• No </t>
-  </si>
-  <si>
-    <t>Are you currently enrolled in any of the following? (choose one)</t>
-  </si>
-  <si>
-    <t>• undergraduate or post-secondary degree program, part-time
-• undergraduate or post-secondary degree program, full-time
-• graduate degree program (Master's, doctorate), part-time
-• graduate degree program (Master's, doctorate), full-time
-• non-degree credentialing program, part-time
-• non-degree credentialing program, full-time
-• Other (part-time), please specify
-• Other (full-time), please specify 
-• Not applicable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• English 
-• Arabic 
-• Chinese 
-• French 
-• German 
-• Italian 
-• Japanese 
-• Korean 
-• Russian 
-• Spanish 
-• Vietnamese
-• American Sign Language
-• Other </t>
-  </si>
-  <si>
-    <t>•  Cost [Select frequency 0-20]
-•  Unable to get time away from work [Select frequency 0-20]
-•  Inability to find childcare [Select frequency 0-20]
-•  Concern over exposure to coronavirus (COVID-19) [Select frequency 0-20]
-•  Caring for family member [Select frequency 0-20]
-•  Other, please describe: [Free text] [Select frequency 0-20]</t>
-  </si>
-  <si>
-    <t>Do you personally know anyone in the U.S. who...Has been officially diagnosed as having COVID-19 by a health care provider?</t>
-  </si>
-  <si>
-    <t>Do you personally know anyone in the U.S. who...Has been hospitalized or died as a result of having COVID-19?</t>
-  </si>
-  <si>
-    <t>How many people were being supported by your total household income in 2019?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To the best of your knowledge, which option best describes your gross (before taxes) household income from all sources, in 2020 (during the coronavirus (COVID-19) pandemic)? 
-You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. </t>
-  </si>
-  <si>
-    <t>How many people were being supported by your total household income in 2020?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To the best of your knowledge, which option best describes your gross (before taxes) household income from all sources, currently? 
-You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. </t>
-  </si>
-  <si>
-    <t>• Working
-• Stay at home parent (not seeking employment)
-• Unemployed or laid off
-• Temporarily out of work or furloughed
-• Other [text entry]</t>
-  </si>
-  <si>
-    <t>• Working
-• Stay at home parent (not seeking employment)
-• Unemployed or laid off
-• Temporarily out of work or furloughed
-• Other [text entry]
-• Not applicable</t>
-  </si>
-  <si>
-    <t>[If very hard, hard or somewhat hard to pay for basics]
-What methods are you using or do you plan to use to cover your expenses? Select all that apply</t>
-  </si>
-  <si>
-    <t>•  By putting it on my credit card and paying it off in full at the next statement
-•  By putting in on my credit card and paying it off over time
-•  With the money currently in my checking/savings account or with cash
-•  Using a bank loan or line of credit
-•  By borrowing from a friend or family member
-•  Using a payday loan, deposit advance, or overdraft
-•  By selling something
-• By using my stimulus payment
-•  By asking my landlord or mortgage provider for an extension
-•  I wouldn’t be able to pay for the expense right now
-•  Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALP survey conducted May 1-6, 2020 
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://www.rand.org/pubs/research_reports/RRA308-3.html  </t>
-    </r>
-  </si>
-  <si>
-    <t>• Open ended</t>
-  </si>
-  <si>
-    <t>What is the date of birth (mm/dd/yyyy) for this child (your oldest in 0-5 age range)?
-[repeated for all children between the ages of 0-5]</t>
-  </si>
-  <si>
-    <t>What is YOUR relationship to this child (your oldest in 0-5 age range)?</t>
-  </si>
-  <si>
-    <t>•  Mother
-•  Father
-•  Step-mother
-•  Step-father
-•  Foster Mother/Father
-•  Kinship Care Provider
-•  Other (please specify) [Free text]</t>
-  </si>
-  <si>
-    <t>What would you like your elected officials or other policymakers (for example, U.S. Congress, state and local leaders) to know about how your family is doing or what you need during this time?</t>
-  </si>
-  <si>
-    <t>-SNAP/EBT (also known as food stamps)
--WIC
--Free or reduced-priced lunches through the School Lunch and Breakfast Assistance Program
--Free food through food pantries and food banksa
--No, but I know how I can access food resources
--No, I am not eligible for supplemental food benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.)
-• Childcare Subsidy
-• Housing
-• Income 
-• Unemployment benefit/insurance
-• Unemployment
-• Disability (not military)
-• Military Benefits (ex. Disability, pension, veterans medical care)
-• Food
-• Transportation
-• Training
-• Clothing
-• Other, please describe [Free Text]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you currently enrolled in any of the following? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">o	GED program  
-o	Undergraduate or post-secondary degree program 
-o	Graduate degree program (Master's, doctorate)  
-o	Non-degree credentialing program  
-o	Not Listed (please specify)   
-o	Not Applicable  </t>
-  </si>
-  <si>
-    <t>Are you currently…</t>
-  </si>
-  <si>
-    <t>Are you currently looking for childcare, either additional/other childcare than your current situation or because you do not currently have childcare?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o Yes  
-o No  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you had any difficulty finding space in a home- or center-based child care program in the past 6 months?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">o Yes  
-o No  
-o Not applicable, I did not need a spot in a child care program  </t>
-  </si>
-  <si>
-    <t>Have you had any difficulty finding other types of child care (e.g., sitter, nanny) in the past 6 months?</t>
-  </si>
-  <si>
-    <t>policy Questions</t>
-  </si>
-  <si>
-    <t>Has this difficulty finding care impacted your ability to work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o Yes  
-o No  
-o Not applicable, I do not work </t>
-  </si>
-  <si>
-    <t>Why has your child care been disrupted?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2638,18 +2649,18 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2666,7 +2677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2692,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2696,7 +2707,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="96" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2713,1573 +2724,1573 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="96" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="144" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="63.95" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="63.95" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="128.1" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="96" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="128.1" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="111.95" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="96" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="144" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="144" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="144" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="198" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="63.95" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="63.95" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="159.94999999999999" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="48" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="48" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="96" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="159.94999999999999" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="159.94999999999999" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="159.94999999999999" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="159.94999999999999" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="159.94999999999999" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="153" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="128.1" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="128.1" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="63.95" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="224.1" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="63.95" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="240" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="111.95" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="48" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="144" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="224.1" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="96" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="96" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="96" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="96" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="240" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="240" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="111.95" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="111.95" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="96" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="96" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="192" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="192" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" ht="192">
+      <c r="A70" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" ht="80.099999999999994">
+      <c r="A75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" ht="80.099999999999994">
+      <c r="A76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" ht="159.94999999999999" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="48" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" ht="96" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="96" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" ht="96">
+      <c r="A81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" ht="96">
+      <c r="A82" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" ht="96" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="192" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" ht="96" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" ht="111.95" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="111.95" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="2" t="s">
+    </row>
+    <row r="89" spans="1:5" ht="128.1" customHeight="1">
+      <c r="A89" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" ht="207.95">
+      <c r="A90" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="111.95" customHeight="1">
+      <c r="A91" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="96" customHeight="1">
+      <c r="A92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="96" customHeight="1">
+      <c r="A93" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="96" customHeight="1">
+      <c r="A94" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="96" customHeight="1">
+      <c r="A95" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="48" customHeight="1">
+      <c r="A96" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" ht="111.95">
+      <c r="A97" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" ht="111.95" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="111.95" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="48" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A101" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="B101" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="D101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A102" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="B102" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="D102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" ht="48">
+      <c r="A103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" ht="192" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E104" s="3"/>
     </row>
